--- a/Project_python/ref/optimization_nmf.xlsx
+++ b/Project_python/ref/optimization_nmf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upvedues-my.sharepoint.com/personal/alsanron_upv_edu_es/Documents/TFM/Repositories/NLP-SDGs_Classificator/Project_python/ref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90CC7965-65D0-4D70-AB1E-B955D31CACA8}"/>
+  <xr:revisionPtr revIDLastSave="442" documentId="11_F25DC773A252ABDACC1048D4495E7D865ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA736BB6-7AC8-477C-9C74-EDA58AE945FE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>num_topics</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>alpha_h</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
   <si>
     <t>nature</t>
@@ -382,7 +379,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +399,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -422,7 +419,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>1000</v>
@@ -454,7 +451,7 @@
         <v>1000</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -480,7 +477,7 @@
         <v>1000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>2</v>
@@ -506,7 +503,7 @@
         <v>1000</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
